--- a/doc/浙江乡情货位编号.xlsx
+++ b/doc/浙江乡情货位编号.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5063" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5135" uniqueCount="3">
   <si>
     <t>○</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,12 +26,16 @@
     <t>●</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>bank倒序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +45,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -110,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -132,6 +145,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3399,10 +3415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BC29"/>
+  <dimension ref="A1:BC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AK56" sqref="AK56"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3861,31 +3877,67 @@
         <v>0</v>
       </c>
       <c r="R5" s="7"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
+      <c r="S5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="AB5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="5"/>
       <c r="AD5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="AN5" s="7"/>
       <c r="AO5" s="2" t="s">
         <v>0</v>
@@ -7468,9 +7520,13 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
+      <c r="AB28" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="AC28" s="5"/>
-      <c r="AD28" s="4"/>
+      <c r="AD28" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
@@ -7645,10 +7701,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A34:C35"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7657,7 +7738,7 @@
   <dimension ref="B1:BC40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN51" sqref="AN51"/>
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11746,27 +11827,67 @@
         <v>0</v>
       </c>
       <c r="R28" s="5"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
+      <c r="S28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="AC28" s="5"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
+      <c r="AD28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="AN28" s="5"/>
       <c r="AO28" s="2" t="s">
         <v>0</v>
@@ -11988,7 +12109,7 @@
   <dimension ref="B1:BC40"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AL48" sqref="AL48"/>
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16086,18 +16207,40 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
+      <c r="AB28" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="AC28" s="5"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
+      <c r="AD28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="AN28" s="5"/>
       <c r="AO28" s="2" t="s">
         <v>0</v>
@@ -16319,7 +16462,7 @@
   <dimension ref="B1:BC40"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AW58" sqref="AW58"/>
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20408,27 +20551,67 @@
         <v>0</v>
       </c>
       <c r="R28" s="5"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
+      <c r="S28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="AC28" s="5"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
+      <c r="AD28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="AN28" s="5"/>
       <c r="AO28" s="2" t="s">
         <v>0</v>
